--- a/data/CRIDC 2018 Submission.xlsx
+++ b/data/CRIDC 2018 Submission.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\SGA\csv-to-html-table\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="graduatesga.vfb.2018-cridc-abst" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="931">
   <si>
     <t>First Name</t>
   </si>
@@ -78,21 +73,12 @@
     <t>Physician Staffing in Emergency Department via a Multi-class Multi-Stage Network: Opening the Blackbox</t>
   </si>
   <si>
-    <t>Changsheng</t>
-  </si>
-  <si>
     <t>Wu</t>
   </si>
   <si>
-    <t>changsheng.wu@gatech.edu</t>
-  </si>
-  <si>
     <t>Materials Science and Engineering</t>
   </si>
   <si>
-    <t>Achieving ultrahigh triboelectric charge density for efficient mechanical energy harvesting</t>
-  </si>
-  <si>
     <t>Xiaowei</t>
   </si>
   <si>
@@ -258,22 +244,7 @@
     <t>One of the most popular strategies for reducing energy use and emissions in the transportation sector is to provide public transit systems designed to help shift commute mode choice from single-occupant vehicles to shared use transit vehicles.  When transit ridership is high, energy use per commuter- trip is low.  Promoting such mode shifts necessitates a clear understanding of the factors that influence mode choice, which is the basis for incorporation of choice modeling into travel demand models.  However, the data used in transit choice modeling typically come from small studies, and it is difficult to accurately quantify the actual tradeoffs across different travel modes.  This study develops a platform in Python to assess travel time, energy use, and monetary cost of various commute alternatives including automobile, local transit rail and bus, express bus, and park and ride.  The platform consists of three modules:  the routing module generates a best-available routing path per commute alternative; the energy module calculates energy use based on the MOVES-Matrix and the Fuel and Emissions Calculator, with real-world operations data applied; the cost module estimates the transit and driving cost.  In the case study, 2,400 commute trips in Atlanta, Georgia are processed through the platform.  The results show that transit availability can be significantly increased through park and ride without sacrificing fuel-saving benefits.  However, travel time and cost are increased in most transit trips, and only two of the 2,400 local transit-park and ride trips yielded a reduction in all three parameters of travel time, energy use, and cost.  This platform can be easily customized and applied to other areas.</t>
   </si>
   <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>dzhou@gatech.edu</t>
-  </si>
-  <si>
     <t>Bioengineering</t>
-  </si>
-  <si>
-    <t>Force-Signaling Coupling at Cell Adhesive Structures</t>
-  </si>
-  <si>
-    <t>Cell adhesion to the extracellular matrix provides forces and signals that regulate tissue organization, repair, and disease. Focal adhesions (FAs), which link the cell's membrane receptors to matrix proteins, serve as sites for cell signaling and force generation. Recent studies suggest that cell adhesive force generation influences FA composition, yet it remains unclear how these forces are transduced into adhesive signals. To address this question, we use micropillar traction force microscopy, which consists of a silicone micropillar array, and can be used to quantify cell adhesive forces based on the deflection of micropillars that the cells are cultured on. Using live-cell imaging of fibroblast cells expressing fluorescent FA proteins, we can assess the spatiotemporal localization of FA proteins and how their localization is related to force at single FAs. Additionally, we are analyzing how mutants of FA proteins alter cell mechanoresponses, such as cell spreading and force generation. This research will generate new insights into how FAs sense force and how these forces are integrated into biochemical signals. We anticipate that this functional analysis of cell adhesive processes will be applicable to many diverse physiological, pathological, and therapeutic settings.</t>
   </si>
   <si>
     <t>Sanam</t>
@@ -652,22 +623,7 @@
     <t>Here, a new proton-exchange-membrane electrolysis is presented, in which lignin was used as the hydrogen source at the anode for hydrogen production. Either polyoxometalate (POM) or FeCl3 was used as the catalyst and charge-transfer agent at the anode. Over 90^% Faraday efficiency was achieved. In a thermal-insulation reactor, the heat energy could be maintained at a very low level for continuous operation. Compared to the best alkaline--water electrolysis reported in literature, the electrical-energy consumption could be 40^% lower with lignin electrolysis. At the anode, the Kraft lignin (KL) was oxidized to aromatic chemicals by POM or FeCl3, and reduced POM or Fe ions were regenerated during the electrolysis. Structure analysis of the residual KL indicated a reduction of the amount of hydroxyl groups and the cleavage of ether bonds. The results suggest that POM- or FeCl3-mediated electrolysis can significantly reduce the electrolysis energy consumption in hydrogen production and, simultaneously, depolymerize lignin to low-molecular-weight value-added aromatic chemicals.</t>
   </si>
   <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Baek</t>
-  </si>
-  <si>
-    <t>baek@gatech.edu</t>
-  </si>
-  <si>
     <t>Computer Science</t>
-  </si>
-  <si>
-    <t>THE GEORGIA OPIOID CRISIS</t>
-  </si>
-  <si>
-    <t>The Opioid Crisis is a growing nation-wide concern. The number of daily overdoses is at an alarming high, and the annual economic burden resulting from opioid abuse is over $78 billion. Recent efforts to surveil the administration of prescription opioids have been unsuccessful, which brings us to question how funding can be used most effectively to combat this national issue. In this study, we aimed to identify indicators of opioid abuse in Georgia counties, and then to use these indicators to create a predictive model for future overdoses in a county. Finally, we used this predictive model to test if re-allocating more health resources to a county might lower the amount of opioid overdoses in the future.</t>
   </si>
   <si>
     <t>Anish</t>
@@ -883,21 +839,6 @@
   </si>
   <si>
     <t>The desire to reduce carbon foot print coupled with government incentives has led to a massive deployment of renewable energy resources, solar PV in particular. Utilities are overwhelmed with number of solar PV interconnection requests filed by the customers, which seem to increase everyday. The approval process for an interconnection request requires a detailed impact analysis to ensure that the installed resource will not adversely effect the reliability of the distribution grid. Currently, impact analysis for a single PV system takes anywhere between 50-120 hours to complete, which becomes an infeasible option for utilities, considering the ever increasing interconnection requests. To better streamline the process, utilities are limiting the size of the allowable PV systems based on a rough estimate, rather than a detailed analysis. As a result, customers are not allowed to install larger PV systems, that otherwise would have no impact on the distribution feeder. This research aims to bridge this gap. The goal is to utilize machine learning and predictive modeling to perform a detailed impact analysis of solar PV systems (or any other renewable resource) within a matter of minutes as opposed to days. The proposed simulation tool will be able to perform a high resolution comprehensive assessment with great accuracy and provide utilities with quantifiable impact metrics to quickly determine any potential issues with the filed interconnection requests.</t>
-  </si>
-  <si>
-    <t>Suyun</t>
-  </si>
-  <si>
-    <t>suyun.wu@scheller.gatech.edu</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Sustainability Information and Managerial Myopia</t>
-  </si>
-  <si>
-    <t>This paper investigates how sustainability information affects managerial myopia. Based on construal level theory, I argue that sustainability information increases psychological distance and activates high-level construal. High-level construal induces abstract and decontextualized thinking, which makes managers feel that long-term projects are more desirable and feasible. Therefore, sustainability information alleviates managerial myopia. I will use laboratory experiment to test my hypotheses. Collectively, this paper demonstrates that sustainability reporting can work as a managerial control system to mitigate managerial myopia.</t>
   </si>
   <si>
     <t>Melony</t>
@@ -2974,9 +2915,6 @@
 Here, we report on Xenon pulse thermal processing (PTP) approach for direct annealing of PbZrxTi1-xO3 thin films on glass and polymeric substrates. PTP uses high-density infrared plasma arc heating to deliver high intensity, uniform energy in pulse waveforms. The heating rates of PTP can be as high as 600,000 Â°C/sec, enabling a highly localized thermal energy delivery, concentrated on the surface of the sample and creating a large temperature difference between the surface and the substrate. 2-MOE-based, 0.3M PbZr0.53Ti0.47O3 (PZT) precursor solutions, with 20% excess Pb with respect to stoichiometry, were prepared in house and spun coated onto platinized glass and kapton substrate. The samples were pyrolyzed at 400 â„ƒ for 2 minutes after each deposition. 3-layered (~200 nm) and 15-layered (~1 Î¼m) thin films were prepared and an overcoat layer of PbO was spun coated to compensate for Pb loss on the surface during annealing.</t>
   </si>
   <si>
-    <t>With its light weight, low cost and high efficiency even at low operation frequency, the triboelectric nanogenerator (TENG) is considered a potential solution for self-powered sensor networks and large-scale renewable blue energy. As an energy harvester, its output power density and efficiency are dictated by the triboelectric charge density. Here we first demonstrated that with the improved soft-contact and fragmental structure, the triboelectric charge density can be increased from 50 to 120 in air when compared to a conventional TENG with only hard contact. However, due to high-voltage air breakdown, most of the enhanced surface charge density brought by material/surface optimization or external ion injection is not retainable or usable for electricity generation during continuous operation of contact-separation mode TENGs. Therefore, we applied high vacuum (~10e^6torr) to eliminate the limitation of air breakdown, which boosted the charge density to 660mâ’2. With the coupling of surface polarization from triboelectrification and hysteretic dielectric polarization from a ferroelectric material, the charge density can further jump to 1003, which elevates the maximum output power density of a conventional TENG from 0.75 to 50 unit even at a low-motion frequency, the normal frequency of human walking and ocean waves. These findings open more possibilities for TENGs both as highly efficient mechanical energy harvesters for large-scale energy sources such ocean waves, and as self-powered modules integratable with devices beyond wearable electronics and sensors. Our findings may also give new insights into long-lasting debates over the mechanism of triboelectrification and its kinetics.</t>
-  </si>
-  <si>
     <t>One-dimensional single-channel, ballistic transport observed in epitaxial graphene nanoribbons is currently not understood, not even in principle. Epitaxial graphene nanoribbons can be produced (by thermal decomposition) on the sidewalls of20 nm deep trenches etched in the silicon terminated face of SiC. For these sidewall nanoribbons, sidearms form at the edges of the naturally occurring SiC terraces that intercept the trench (due to the unavoidable slight miscut of the crystal). Alternatively, sidearm-free nanoribbons can be produced by properly annealing SiC whereby step bunching produces large (20 nm high) substrate steps on which graphene subsequently grows. Conductive probe potentiometry was performed on both types of sidewall nanoribbons, providing transport characteristics as a function of length. As might be expected, the sidearms are found to significantly reduce the mean free paths (1Âµm) compared with the sidearm free ribbons (&gt;10Âµm). In contrast, mean free paths of about 20nm are found for lithographically produced epigraphene nanoribbons and about</t>
   </si>
   <si>
@@ -3009,7 +2947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3580,9 +3518,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3630,7 +3565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3663,26 +3598,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3715,23 +3633,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3908,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,7 +3829,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3937,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3978,7 +3879,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4004,243 +3905,243 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>940</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>852</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
       <c r="I12" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
+      <c r="A13">
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -4252,151 +4153,151 @@
         <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>870</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>897</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>881</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
         <v>89</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -4408,7 +4309,7 @@
         <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -4417,142 +4318,142 @@
         <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>883</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>885</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>525</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
         <v>120</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="I23" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>125</v>
       </c>
-      <c r="F24" t="s">
-        <v>543</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>127</v>
@@ -4560,155 +4461,155 @@
       <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>864</v>
+      <c r="E25" t="s">
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+        <v>145</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
+        <v>150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -4720,215 +4621,215 @@
         <v>157</v>
       </c>
       <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>33</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="I32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="I33" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" t="s">
-        <v>899</v>
+        <v>180</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="2">
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I36" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>890</v>
+        <v>190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -4937,778 +4838,778 @@
         <v>198</v>
       </c>
       <c r="I39" t="s">
-        <v>900</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
+      <c r="A40">
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>888</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="2">
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>883</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I44" t="s">
-        <v>901</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
+      <c r="A45">
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F45" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" t="s">
         <v>230</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>232</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="C47" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>234</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>235</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
         <v>236</v>
       </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>237</v>
       </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>239</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>240</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
         <v>241</v>
       </c>
-      <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>242</v>
       </c>
-      <c r="I48" t="s">
+    </row>
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="C49" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
+        <v>853</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>246</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>854</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>871</v>
+        <v>261</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>264</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="I53" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>872</v>
+        <v>189</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
+        <v>277</v>
+      </c>
+      <c r="I55" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>280</v>
-      </c>
-      <c r="I56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
+        <v>282</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>285</v>
-      </c>
-      <c r="I57" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I58" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
+      <c r="A59">
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>298</v>
+      </c>
+      <c r="I59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>64</v>
       </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>295</v>
-      </c>
-      <c r="I59" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>300</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="I60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s">
-        <v>305</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>62</v>
+        <v>310</v>
+      </c>
+      <c r="I61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>310</v>
-      </c>
-      <c r="I62" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>63</v>
+      <c r="A63" s="2">
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I63" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>64</v>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
-      </c>
-      <c r="I64" t="s">
-        <v>322</v>
+        <v>326</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E66" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F66" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>334</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="I66" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I67" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>68</v>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E68" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>344</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>69</v>
+        <v>346</v>
+      </c>
+      <c r="I68" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C69" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>348</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
@@ -5716,13 +5617,13 @@
       <c r="H69" t="s">
         <v>349</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>70</v>
+      <c r="A70" s="2">
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>351</v>
@@ -5734,232 +5635,232 @@
         <v>353</v>
       </c>
       <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>354</v>
       </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>355</v>
       </c>
-      <c r="I70" t="s">
+    </row>
+    <row r="71" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>357</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>358</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>359</v>
       </c>
-      <c r="F71" t="s">
-        <v>211</v>
-      </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
         <v>360</v>
       </c>
-      <c r="I71" t="s">
-        <v>910</v>
+      <c r="I71" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E72" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I72" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>367</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
+      </c>
+      <c r="I73" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>370</v>
-      </c>
-      <c r="E74" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>856</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>75</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E75" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F75" t="s">
-        <v>377</v>
+        <v>855</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>378</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>76</v>
+        <v>380</v>
+      </c>
+      <c r="I75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F76" t="s">
-        <v>383</v>
+        <v>851</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>384</v>
-      </c>
-      <c r="I76" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>77</v>
+      <c r="I76" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C77" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E77" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>389</v>
-      </c>
-      <c r="I77" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>78</v>
+      <c r="A78">
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C78" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F78" t="s">
-        <v>874</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
         <v>396</v>
@@ -5968,47 +5869,47 @@
         <v>397</v>
       </c>
       <c r="F79" t="s">
-        <v>873</v>
+        <v>398</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I79" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F80" t="s">
-        <v>869</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>403</v>
-      </c>
-      <c r="I80" s="1" t="s">
         <v>404</v>
+      </c>
+      <c r="I80" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>405</v>
@@ -6020,33 +5921,33 @@
         <v>407</v>
       </c>
       <c r="F81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
         <v>408</v>
       </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
         <v>409</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>410</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>411</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>875</v>
-      </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
@@ -6059,450 +5960,453 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>83</v>
+      <c r="A83">
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E83" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F83" t="s">
-        <v>416</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
         <v>417</v>
       </c>
-      <c r="I83" t="s">
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
+        <v>336</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
         <v>419</v>
       </c>
-      <c r="C84" t="s">
+      <c r="I84" t="s">
         <v>420</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>813</v>
+      </c>
+      <c r="C85" t="s">
+        <v>812</v>
+      </c>
+      <c r="E85" t="s">
         <v>421</v>
       </c>
-      <c r="F84" t="s">
-        <v>211</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>422</v>
       </c>
-      <c r="I84" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="I85" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
         <v>423</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>424</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>425</v>
       </c>
-      <c r="F85" t="s">
-        <v>64</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F86" t="s">
+        <v>848</v>
+      </c>
+      <c r="G86" t="s">
         <v>11</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>426</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="I86" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C86" t="s">
-        <v>428</v>
-      </c>
-      <c r="E86" t="s">
-        <v>429</v>
-      </c>
-      <c r="F86" t="s">
-        <v>64</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>430</v>
-      </c>
-      <c r="I86" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" t="s">
+        <v>430</v>
+      </c>
+      <c r="F87" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>431</v>
+      </c>
+      <c r="I87" t="s">
         <v>432</v>
-      </c>
-      <c r="C87" t="s">
-        <v>433</v>
-      </c>
-      <c r="E87" t="s">
-        <v>434</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" t="s">
+        <v>434</v>
+      </c>
+      <c r="E88" t="s">
         <v>435</v>
       </c>
-      <c r="C88" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>436</v>
       </c>
-      <c r="F88" t="s">
-        <v>354</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>437</v>
       </c>
-      <c r="I88" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>831</v>
-      </c>
       <c r="C89" t="s">
-        <v>830</v>
+        <v>439</v>
       </c>
       <c r="E89" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I89" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>90</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E90" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F90" t="s">
-        <v>866</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>444</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>91</v>
+        <v>446</v>
+      </c>
+      <c r="I90" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E91" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>449</v>
-      </c>
-      <c r="I91" t="s">
         <v>450</v>
       </c>
+      <c r="I91" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>92</v>
+      <c r="A92">
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C92" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I92" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C93" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F93" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C94" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E94" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I94" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E95" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>468</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="I95" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>96</v>
+      <c r="A96" s="2">
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C96" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="D96" t="s">
+        <v>814</v>
       </c>
       <c r="E96" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I96" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>97</v>
+      <c r="A97">
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>98</v>
+      <c r="A98" s="2">
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
+        <v>815</v>
       </c>
       <c r="C98" t="s">
+        <v>816</v>
+      </c>
+      <c r="E98" t="s">
         <v>481</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>854</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
         <v>482</v>
       </c>
-      <c r="F98" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>483</v>
       </c>
-      <c r="I98" t="s">
+    </row>
+    <row r="99" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>485</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>486</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
+        <v>854</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
         <v>487</v>
       </c>
-      <c r="F99" t="s">
-        <v>121</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="I99" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
         <v>489</v>
@@ -6510,66 +6414,63 @@
       <c r="C100" t="s">
         <v>490</v>
       </c>
-      <c r="D100" t="s">
-        <v>832</v>
-      </c>
       <c r="E100" t="s">
         <v>491</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
         <v>492</v>
       </c>
       <c r="I100" t="s">
-        <v>493</v>
+        <v>893</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
+        <v>493</v>
+      </c>
+      <c r="C101" t="s">
         <v>494</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>495</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
         <v>496</v>
       </c>
-      <c r="F101" t="s">
-        <v>211</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>497</v>
-      </c>
-      <c r="I101" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>833</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>834</v>
+        <v>498</v>
       </c>
       <c r="E102" t="s">
         <v>499</v>
       </c>
       <c r="F102" t="s">
-        <v>872</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
         <v>17</v>
@@ -6581,9 +6482,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>103</v>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>107</v>
       </c>
       <c r="B103" t="s">
         <v>502</v>
@@ -6595,7 +6496,7 @@
         <v>504</v>
       </c>
       <c r="F103" t="s">
-        <v>872</v>
+        <v>194</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
@@ -6603,129 +6504,129 @@
       <c r="H103" t="s">
         <v>505</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>104</v>
+      <c r="A104">
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E104" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F104" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I104" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>105</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C105" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E105" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>514</v>
-      </c>
-      <c r="I105" t="s">
-        <v>515</v>
+        <v>520</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>106</v>
+      <c r="A106">
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>522</v>
       </c>
       <c r="C106" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="E106" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F106" t="s">
-        <v>64</v>
+        <v>525</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="I106" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C107" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E107" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
       <c r="G107" t="s">
         <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I107" t="s">
-        <v>524</v>
+        <v>916</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>530</v>
+        <v>817</v>
       </c>
       <c r="C108" t="s">
-        <v>531</v>
+        <v>96</v>
       </c>
       <c r="E108" t="s">
         <v>532</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>17</v>
@@ -6737,9 +6638,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
         <v>535</v>
@@ -6751,24 +6652,24 @@
         <v>537</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>538</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>538</v>
-      </c>
-      <c r="I109" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="I109" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>110</v>
+      <c r="A110" s="2">
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>540</v>
+        <v>424</v>
       </c>
       <c r="C110" t="s">
         <v>541</v>
@@ -6777,177 +6678,177 @@
         <v>542</v>
       </c>
       <c r="F110" t="s">
+        <v>315</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
         <v>543</v>
       </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
         <v>544</v>
       </c>
-      <c r="I110" t="s">
+      <c r="C111" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="E111" t="s">
         <v>546</v>
       </c>
-      <c r="C111" t="s">
+      <c r="F111" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>911</v>
+      </c>
+      <c r="I111" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
         <v>547</v>
       </c>
-      <c r="E111" t="s">
+      <c r="C112" t="s">
         <v>548</v>
       </c>
-      <c r="F111" t="s">
-        <v>528</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="E112" t="s">
         <v>549</v>
       </c>
-      <c r="I111" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>835</v>
-      </c>
-      <c r="C112" t="s">
-        <v>104</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
         <v>550</v>
       </c>
-      <c r="F112" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>551</v>
       </c>
-      <c r="I112" t="s">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>553</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>554</v>
       </c>
-      <c r="E113" t="s">
-        <v>555</v>
-      </c>
       <c r="F113" t="s">
-        <v>556</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I113" t="s">
-        <v>558</v>
+        <v>897</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
+        <v>556</v>
       </c>
       <c r="C114" t="s">
+        <v>557</v>
+      </c>
+      <c r="E114" t="s">
+        <v>558</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
         <v>559</v>
       </c>
-      <c r="E114" t="s">
+      <c r="I114" t="s">
         <v>560</v>
-      </c>
-      <c r="F114" t="s">
-        <v>333</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
-        <v>561</v>
-      </c>
-      <c r="I114" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
+        <v>561</v>
+      </c>
+      <c r="C115" t="s">
         <v>562</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>563</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
         <v>564</v>
       </c>
-      <c r="F115" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s">
-        <v>929</v>
-      </c>
       <c r="I115" t="s">
-        <v>930</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C116" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E116" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>510</v>
       </c>
       <c r="G116" t="s">
         <v>17</v>
       </c>
       <c r="H116" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I116" t="s">
-        <v>569</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>117</v>
+      <c r="A117" s="2">
+        <v>121</v>
       </c>
       <c r="B117" t="s">
         <v>570</v>
@@ -6959,154 +6860,154 @@
         <v>572</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H117" t="s">
         <v>573</v>
       </c>
       <c r="I117" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>574</v>
+        <v>925</v>
       </c>
       <c r="C118" t="s">
+        <v>926</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="E118" t="s">
+        <v>927</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>928</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
         <v>575</v>
       </c>
-      <c r="E118" t="s">
+      <c r="C119" t="s">
         <v>576</v>
       </c>
-      <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="E119" t="s">
         <v>577</v>
       </c>
-      <c r="I118" t="s">
+      <c r="F119" t="s">
+        <v>854</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="I119" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
         <v>579</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
+        <v>295</v>
+      </c>
+      <c r="E120" t="s">
         <v>580</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F120" t="s">
+        <v>849</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
         <v>581</v>
       </c>
-      <c r="F119" t="s">
-        <v>64</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I120" t="s">
         <v>582</v>
-      </c>
-      <c r="I119" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>584</v>
-      </c>
-      <c r="C120" t="s">
-        <v>585</v>
-      </c>
-      <c r="E120" t="s">
-        <v>586</v>
-      </c>
-      <c r="F120" t="s">
-        <v>528</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s">
-        <v>587</v>
-      </c>
-      <c r="I120" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
+        <v>583</v>
+      </c>
+      <c r="C121" t="s">
+        <v>584</v>
+      </c>
+      <c r="E121" t="s">
+        <v>585</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>586</v>
+      </c>
+      <c r="I121" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
         <v>588</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>589</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>590</v>
       </c>
-      <c r="F121" t="s">
-        <v>33</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s">
         <v>591</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I122" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>944</v>
-      </c>
-      <c r="C122" t="s">
-        <v>945</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="E122" t="s">
-        <v>946</v>
-      </c>
-      <c r="F122" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" t="s">
-        <v>947</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>593</v>
@@ -7118,7 +7019,7 @@
         <v>595</v>
       </c>
       <c r="F123" t="s">
-        <v>872</v>
+        <v>189</v>
       </c>
       <c r="G123" t="s">
         <v>17</v>
@@ -7126,129 +7027,129 @@
       <c r="H123" t="s">
         <v>596</v>
       </c>
-      <c r="I123" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>124</v>
+      <c r="I123" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C124" t="s">
-        <v>313</v>
+        <v>599</v>
       </c>
       <c r="E124" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F124" t="s">
-        <v>867</v>
+        <v>601</v>
       </c>
       <c r="G124" t="s">
         <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>599</v>
-      </c>
-      <c r="I124" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>125</v>
+        <v>602</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C125" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E125" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>607</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
       </c>
       <c r="H125" t="s">
-        <v>604</v>
-      </c>
-      <c r="I125" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>126</v>
+        <v>608</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C126" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E126" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>854</v>
       </c>
       <c r="G126" t="s">
         <v>17</v>
       </c>
       <c r="H126" t="s">
-        <v>609</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>127</v>
+        <v>612</v>
+      </c>
+      <c r="I126" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C127" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E127" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F127" t="s">
-        <v>197</v>
+        <v>616</v>
       </c>
       <c r="G127" t="s">
         <v>17</v>
       </c>
       <c r="H127" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C128" t="s">
-        <v>617</v>
+        <v>424</v>
       </c>
       <c r="E128" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F128" t="s">
-        <v>619</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
         <v>17</v>
@@ -7257,168 +7158,168 @@
         <v>620</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>133</v>
+      </c>
+      <c r="B129" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>622</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
         <v>623</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
         <v>624</v>
       </c>
-      <c r="F129" t="s">
+      <c r="I129" t="s">
         <v>625</v>
       </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" t="s">
+    </row>
+    <row r="130" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
         <v>626</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>424</v>
+      </c>
+      <c r="E130" t="s">
         <v>627</v>
       </c>
-      <c r="C130" t="s">
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
         <v>628</v>
       </c>
-      <c r="E130" t="s">
+      <c r="I130" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
         <v>629</v>
       </c>
-      <c r="F130" t="s">
-        <v>872</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="C131" t="s">
         <v>630</v>
       </c>
-      <c r="I130" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="E131" t="s">
         <v>631</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s">
         <v>632</v>
       </c>
-      <c r="E131" t="s">
+      <c r="I131" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
         <v>633</v>
       </c>
-      <c r="F131" t="s">
+      <c r="C132" t="s">
         <v>634</v>
       </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="E132" t="s">
         <v>635</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
         <v>636</v>
       </c>
-      <c r="C132" t="s">
-        <v>442</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="I132" t="s">
         <v>637</v>
       </c>
-      <c r="F132" t="s">
-        <v>45</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
         <v>638</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>639</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>640</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
+        <v>73</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
         <v>641</v>
       </c>
-      <c r="F133" t="s">
-        <v>64</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
         <v>642</v>
       </c>
-      <c r="I133" t="s">
+      <c r="C134" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="E134" t="s">
         <v>644</v>
       </c>
-      <c r="C134" t="s">
-        <v>442</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
         <v>645</v>
       </c>
-      <c r="F134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="I134" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>135</v>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>647</v>
@@ -7430,195 +7331,201 @@
         <v>649</v>
       </c>
       <c r="F135" t="s">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>650</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>916</v>
+        <v>900</v>
+      </c>
+      <c r="I135" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>136</v>
+      <c r="A136" s="2">
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>651</v>
       </c>
       <c r="C136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" t="s">
+        <v>819</v>
+      </c>
+      <c r="E136" t="s">
         <v>652</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>61</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>920</v>
+      </c>
+      <c r="I136" t="s">
         <v>653</v>
-      </c>
-      <c r="F136" t="s">
-        <v>39</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>654</v>
-      </c>
-      <c r="I136" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" t="s">
+        <v>654</v>
+      </c>
+      <c r="D137" t="s">
+        <v>820</v>
+      </c>
+      <c r="E137" t="s">
+        <v>655</v>
+      </c>
+      <c r="F137" t="s">
+        <v>61</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
         <v>656</v>
       </c>
-      <c r="C137" t="s">
+      <c r="I137" t="s">
         <v>657</v>
       </c>
-      <c r="E137" t="s">
+    </row>
+    <row r="138" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
         <v>658</v>
       </c>
-      <c r="F137" t="s">
-        <v>76</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="C138" t="s">
         <v>659</v>
       </c>
-      <c r="I137" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="E138" t="s">
         <v>660</v>
       </c>
-      <c r="C138" t="s">
+      <c r="F138" t="s">
         <v>661</v>
       </c>
-      <c r="E138" t="s">
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
         <v>662</v>
       </c>
-      <c r="F138" t="s">
-        <v>33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="I138" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s">
         <v>663</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="C139" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
+        <v>821</v>
+      </c>
+      <c r="E139" t="s">
         <v>665</v>
       </c>
-      <c r="C139" t="s">
+      <c r="F139" t="s">
+        <v>107</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
         <v>666</v>
       </c>
-      <c r="E139" t="s">
+      <c r="I139" t="s">
         <v>667</v>
       </c>
-      <c r="F139" t="s">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
         <v>668</v>
       </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>918</v>
-      </c>
-      <c r="I139" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>669</v>
       </c>
-      <c r="C140" t="s">
-        <v>100</v>
-      </c>
       <c r="D140" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="E140" t="s">
         <v>670</v>
       </c>
       <c r="F140" t="s">
-        <v>64</v>
+        <v>671</v>
       </c>
       <c r="G140" t="s">
         <v>17</v>
       </c>
       <c r="H140" t="s">
-        <v>938</v>
+        <v>672</v>
       </c>
       <c r="I140" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>674</v>
       </c>
       <c r="C141" t="s">
-        <v>672</v>
-      </c>
-      <c r="D141" t="s">
-        <v>838</v>
+        <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F141" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G141" t="s">
         <v>17</v>
       </c>
       <c r="H141" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I141" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C142" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E142" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F142" t="s">
-        <v>679</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
         <v>17</v>
@@ -7627,12 +7534,12 @@
         <v>680</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
         <v>681</v>
@@ -7641,13 +7548,13 @@
         <v>682</v>
       </c>
       <c r="D143" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="E143" t="s">
         <v>683</v>
       </c>
       <c r="F143" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>17</v>
@@ -7660,408 +7567,408 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>145</v>
+      <c r="A144" s="2">
+        <v>149</v>
       </c>
       <c r="B144" t="s">
+        <v>668</v>
+      </c>
+      <c r="C144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D144" t="s">
+        <v>824</v>
+      </c>
+      <c r="E144" t="s">
         <v>686</v>
       </c>
-      <c r="C144" t="s">
+      <c r="F144" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
         <v>687</v>
       </c>
-      <c r="D144" t="s">
-        <v>840</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="I144" t="s">
         <v>688</v>
       </c>
-      <c r="F144" t="s">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" t="s">
         <v>689</v>
       </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="E145" t="s">
         <v>690</v>
       </c>
-      <c r="I144" t="s">
+      <c r="F145" t="s">
+        <v>200</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="I145" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
         <v>692</v>
       </c>
-      <c r="C145" t="s">
-        <v>128</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" t="s">
+        <v>825</v>
+      </c>
+      <c r="E146" t="s">
         <v>693</v>
       </c>
-      <c r="F145" t="s">
-        <v>64</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="F146" t="s">
+        <v>61</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
         <v>694</v>
       </c>
-      <c r="I145" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="I146" t="s">
         <v>695</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
         <v>696</v>
       </c>
-      <c r="E146" t="s">
+      <c r="C147" t="s">
         <v>697</v>
       </c>
-      <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="D147" t="s">
+        <v>826</v>
+      </c>
+      <c r="E147" t="s">
         <v>698</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="F147" t="s">
         <v>699</v>
       </c>
-      <c r="C147" t="s">
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
         <v>700</v>
       </c>
-      <c r="D147" t="s">
-        <v>841</v>
-      </c>
-      <c r="E147" t="s">
-        <v>701</v>
-      </c>
-      <c r="F147" t="s">
-        <v>33</v>
-      </c>
-      <c r="G147" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" t="s">
-        <v>702</v>
-      </c>
       <c r="I147" t="s">
-        <v>703</v>
+        <v>903</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>686</v>
+        <v>507</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
-      </c>
-      <c r="D148" t="s">
-        <v>842</v>
+        <v>508</v>
       </c>
       <c r="E148" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
+        <v>510</v>
       </c>
       <c r="G148" t="s">
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>705</v>
+        <v>511</v>
       </c>
       <c r="I148" t="s">
-        <v>706</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>701</v>
       </c>
       <c r="C149" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E149" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F149" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="G149" t="s">
         <v>17</v>
       </c>
       <c r="H149" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I149" t="s">
-        <v>942</v>
+        <v>705</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
+        <v>706</v>
+      </c>
+      <c r="C150" t="s">
+        <v>707</v>
+      </c>
+      <c r="D150" t="s">
+        <v>827</v>
+      </c>
+      <c r="E150" t="s">
+        <v>708</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
+        <v>709</v>
+      </c>
+      <c r="I150" t="s">
         <v>710</v>
       </c>
-      <c r="C150" t="s">
-        <v>163</v>
-      </c>
-      <c r="D150" t="s">
-        <v>843</v>
-      </c>
-      <c r="E150" t="s">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
         <v>711</v>
       </c>
-      <c r="F150" t="s">
-        <v>64</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="C151" t="s">
         <v>712</v>
       </c>
-      <c r="I150" t="s">
+      <c r="D151" t="s">
+        <v>828</v>
+      </c>
+      <c r="E151" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="F151" t="s">
         <v>714</v>
       </c>
-      <c r="C151" t="s">
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
         <v>715</v>
       </c>
-      <c r="D151" t="s">
-        <v>844</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="I151" t="s">
         <v>716</v>
       </c>
-      <c r="F151" t="s">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
         <v>717</v>
       </c>
-      <c r="G151" t="s">
-        <v>17</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="C152" t="s">
         <v>718</v>
       </c>
-      <c r="I151" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>153</v>
-      </c>
-      <c r="B152" t="s">
-        <v>525</v>
-      </c>
-      <c r="C152" t="s">
-        <v>526</v>
-      </c>
       <c r="E152" t="s">
-        <v>527</v>
+        <v>719</v>
       </c>
       <c r="F152" t="s">
-        <v>528</v>
+        <v>854</v>
       </c>
       <c r="G152" t="s">
         <v>17</v>
       </c>
       <c r="H152" t="s">
-        <v>529</v>
+        <v>720</v>
       </c>
       <c r="I152" t="s">
-        <v>895</v>
+        <v>721</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>154</v>
+      <c r="A153" s="2">
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C153" t="s">
-        <v>720</v>
+        <v>723</v>
+      </c>
+      <c r="D153" t="s">
+        <v>829</v>
       </c>
       <c r="E153" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F153" t="s">
-        <v>64</v>
+        <v>725</v>
       </c>
       <c r="G153" t="s">
         <v>17</v>
       </c>
       <c r="H153" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="I153" t="s">
-        <v>723</v>
+        <v>924</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>155</v>
+      <c r="A154">
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>724</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>725</v>
-      </c>
-      <c r="D154" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="E154" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>17</v>
       </c>
       <c r="H154" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I154" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>729</v>
+        <v>453</v>
       </c>
       <c r="C155" t="s">
         <v>730</v>
       </c>
       <c r="D155" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="E155" t="s">
         <v>731</v>
       </c>
       <c r="F155" t="s">
+        <v>139</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
         <v>732</v>
       </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="I155" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="I155" t="s">
+    </row>
+    <row r="156" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" t="s">
+        <v>453</v>
+      </c>
+      <c r="D156" t="s">
+        <v>831</v>
+      </c>
+      <c r="E156" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>157</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="F156" t="s">
         <v>735</v>
       </c>
-      <c r="C156" t="s">
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
         <v>736</v>
       </c>
-      <c r="E156" t="s">
+      <c r="I156" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="F156" t="s">
-        <v>872</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s">
-        <v>738</v>
-      </c>
-      <c r="I156" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
+        <v>738</v>
+      </c>
+      <c r="C157" t="s">
+        <v>739</v>
+      </c>
+      <c r="E157" t="s">
         <v>740</v>
       </c>
-      <c r="C157" t="s">
+      <c r="F157" t="s">
+        <v>297</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
         <v>741</v>
       </c>
-      <c r="D157" t="s">
-        <v>847</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="I157" t="s">
         <v>742</v>
       </c>
-      <c r="F157" t="s">
+    </row>
+    <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
         <v>743</v>
       </c>
-      <c r="G157" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="C158" t="s">
         <v>744</v>
       </c>
-      <c r="I157" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>159</v>
-      </c>
-      <c r="B158" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="E158" t="s">
         <v>745</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>746</v>
-      </c>
-      <c r="F158" t="s">
-        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>17</v>
@@ -8069,170 +7976,176 @@
       <c r="H158" t="s">
         <v>747</v>
       </c>
-      <c r="I158" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>160</v>
+      <c r="I158" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>749</v>
       </c>
       <c r="C159" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D159" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="E159" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F159" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="G159" t="s">
         <v>17</v>
       </c>
       <c r="H159" t="s">
-        <v>750</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>161</v>
+        <v>752</v>
+      </c>
+      <c r="I159" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>754</v>
       </c>
       <c r="C160" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D160" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="E160" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F160" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>754</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
+      </c>
+      <c r="I160" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>162</v>
+      <c r="A161">
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C161" t="s">
-        <v>757</v>
+        <v>760</v>
+      </c>
+      <c r="D161" t="s">
+        <v>834</v>
       </c>
       <c r="E161" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>699</v>
       </c>
       <c r="G161" t="s">
         <v>17</v>
       </c>
       <c r="H161" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="I161" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C162" t="s">
-        <v>762</v>
+        <v>764</v>
+      </c>
+      <c r="D162" t="s">
+        <v>835</v>
       </c>
       <c r="E162" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F162" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G162" t="s">
         <v>17</v>
       </c>
       <c r="H162" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C163" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D163" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="E163" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F163" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="G163" t="s">
         <v>17</v>
       </c>
       <c r="H163" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I163" t="s">
-        <v>771</v>
+        <v>876</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
         <v>772</v>
       </c>
       <c r="C164" t="s">
-        <v>495</v>
+        <v>773</v>
       </c>
       <c r="D164" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="E164" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F164" t="s">
-        <v>774</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H164" t="s">
         <v>775</v>
@@ -8242,8 +8155,8 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>166</v>
+      <c r="A165" s="2">
+        <v>170</v>
       </c>
       <c r="B165" t="s">
         <v>777</v>
@@ -8252,13 +8165,13 @@
         <v>778</v>
       </c>
       <c r="D165" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="E165" t="s">
         <v>779</v>
       </c>
       <c r="F165" t="s">
-        <v>717</v>
+        <v>315</v>
       </c>
       <c r="G165" t="s">
         <v>17</v>
@@ -8267,70 +8180,70 @@
         <v>780</v>
       </c>
       <c r="I165" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>167</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C166" t="s">
-        <v>782</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="E166" t="s">
         <v>783</v>
       </c>
       <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" t="s">
         <v>784</v>
       </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>785</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>887</v>
-      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>168</v>
+      <c r="A167" s="2">
+        <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>786</v>
       </c>
       <c r="C167" t="s">
+        <v>424</v>
+      </c>
+      <c r="D167" t="s">
+        <v>840</v>
+      </c>
+      <c r="E167" t="s">
         <v>787</v>
       </c>
-      <c r="D167" t="s">
-        <v>854</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
         <v>788</v>
       </c>
-      <c r="F167" t="s">
-        <v>202</v>
-      </c>
-      <c r="G167" t="s">
-        <v>17</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>789</v>
       </c>
-      <c r="I167" t="s">
-        <v>894</v>
-      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>169</v>
+      <c r="A168">
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>790</v>
@@ -8339,13 +8252,13 @@
         <v>791</v>
       </c>
       <c r="D168" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E168" t="s">
         <v>792</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="G168" t="s">
         <v>17</v>
@@ -8357,237 +8270,121 @@
         <v>794</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>795</v>
       </c>
       <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="E169" t="s">
         <v>796</v>
       </c>
-      <c r="D169" t="s">
-        <v>856</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
+        <v>113</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
         <v>797</v>
       </c>
-      <c r="F169" t="s">
-        <v>333</v>
-      </c>
-      <c r="G169" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" t="s">
-        <v>798</v>
-      </c>
-      <c r="I169" t="s">
-        <v>799</v>
+      <c r="I169" s="1" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
+        <v>798</v>
+      </c>
+      <c r="C170" t="s">
+        <v>799</v>
+      </c>
+      <c r="D170" t="s">
+        <v>842</v>
+      </c>
+      <c r="E170" t="s">
         <v>800</v>
       </c>
-      <c r="C170" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" t="s">
-        <v>857</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
+        <v>850</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
         <v>801</v>
       </c>
-      <c r="F170" t="s">
-        <v>33</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>802</v>
-      </c>
-      <c r="I170" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
+        <v>803</v>
+      </c>
+      <c r="C171" t="s">
+        <v>162</v>
+      </c>
+      <c r="D171" t="s">
+        <v>843</v>
+      </c>
+      <c r="E171" t="s">
         <v>804</v>
       </c>
-      <c r="C171" t="s">
-        <v>442</v>
-      </c>
-      <c r="D171" t="s">
-        <v>858</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" t="s">
         <v>805</v>
       </c>
-      <c r="F171" t="s">
-        <v>33</v>
-      </c>
-      <c r="G171" t="s">
-        <v>17</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>806</v>
       </c>
-      <c r="I171" t="s">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>173</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>808</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" t="s">
         <v>809</v>
       </c>
-      <c r="D172" t="s">
-        <v>859</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
         <v>810</v>
       </c>
-      <c r="F172" t="s">
-        <v>333</v>
-      </c>
-      <c r="G172" t="s">
-        <v>17</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>811</v>
-      </c>
-      <c r="I172" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
-        <v>813</v>
-      </c>
-      <c r="C173" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" t="s">
-        <v>814</v>
-      </c>
-      <c r="F173" t="s">
-        <v>121</v>
-      </c>
-      <c r="G173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" t="s">
-        <v>815</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>175</v>
-      </c>
-      <c r="B174" t="s">
-        <v>816</v>
-      </c>
-      <c r="C174" t="s">
-        <v>817</v>
-      </c>
-      <c r="D174" t="s">
-        <v>860</v>
-      </c>
-      <c r="E174" t="s">
-        <v>818</v>
-      </c>
-      <c r="F174" t="s">
-        <v>868</v>
-      </c>
-      <c r="G174" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" t="s">
-        <v>819</v>
-      </c>
-      <c r="I174" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>176</v>
-      </c>
-      <c r="B175" t="s">
-        <v>821</v>
-      </c>
-      <c r="C175" t="s">
-        <v>170</v>
-      </c>
-      <c r="D175" t="s">
-        <v>861</v>
-      </c>
-      <c r="E175" t="s">
-        <v>822</v>
-      </c>
-      <c r="F175" t="s">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s">
-        <v>17</v>
-      </c>
-      <c r="H175" t="s">
-        <v>823</v>
-      </c>
-      <c r="I175" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>177</v>
-      </c>
-      <c r="B176" t="s">
-        <v>825</v>
-      </c>
-      <c r="C176" t="s">
-        <v>826</v>
-      </c>
-      <c r="E176" t="s">
-        <v>827</v>
-      </c>
-      <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>17</v>
-      </c>
-      <c r="H176" t="s">
-        <v>828</v>
-      </c>
-      <c r="I176" t="s">
-        <v>829</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1"/>
-    <hyperlink ref="E78" r:id="rId2"/>
-    <hyperlink ref="E82" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E74" r:id="rId2"/>
+    <hyperlink ref="E78" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/CRIDC 2018 Submission.xlsx
+++ b/data/CRIDC 2018 Submission.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="921">
   <si>
     <t>First Name</t>
   </si>
@@ -55,22 +55,7 @@
     <t>Automotive Recycling, Innovation, and Sustainability</t>
   </si>
   <si>
-    <t>Caglar</t>
-  </si>
-  <si>
-    <t>Caglayan</t>
-  </si>
-  <si>
-    <t>ccaglayan6@gatech.edu</t>
-  </si>
-  <si>
-    <t>Industrial Engineering - Operations Research</t>
-  </si>
-  <si>
     <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Physician Staffing in Emergency Department via a Multi-class Multi-Stage Network: Opening the Blackbox</t>
   </si>
   <si>
     <t>Wu</t>
@@ -1044,19 +1029,7 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>Roche</t>
-  </si>
-  <si>
-    <t>mroche6@gatech.edu</t>
-  </si>
-  <si>
     <t>Strategy and Innovation</t>
-  </si>
-  <si>
-    <t>Necessity Never Made a Good Bargain: External Conditions, Entrepreneurial Motives, and Startup Outcomes</t>
-  </si>
-  <si>
-    <t>Certain individuals start companies pulled by opportunity, while others are pushed by necessity. This project proposes a novel methodology to identify necessity entrepreneurs that exploits variations in the employees' risk of being unemployed and nets out the confounding effect of opportunities. Using a rich dataset of startup founders in life sciences, we show that, as unemployment rate increases, the fraction of necessity entrepreneurs also rises. This finding is not driven by necessity entrepreneurs crowding out opportunity entrepreneurs when unemployment is high. Additionally, we find that startups entirely founded by necessity entrepreneurs show worse financial and innovative performance outcomes than startups founded by at least one opportunity entrepreneur. Finally, having necessity entrepreneurs as founders explains approximately 11 percentage points of the negative effect of unemployment on startups' performance.</t>
   </si>
   <si>
     <t>Zack</t>
@@ -1655,12 +1628,6 @@
   </si>
   <si>
     <t>yzhang3130@gatech.edu</t>
-  </si>
-  <si>
-    <t>Mechanism and performance of ZnO@TiN Core/Shell Nanorods as Anode for Rechargeable Zinc Batteries</t>
-  </si>
-  <si>
-    <t>Rechargeable Zn batteries are promising due to various advantages of zinc. However, the performance of a zinc electrode is limited by passivation, shape change, and dendrite growth. We proposed a novel Zn anode, three-dimensional carbon paper (current collector) zinc oxide @ titanium nitride core/shell nanorods (denoted as 3D CP ZnO@TiN core/shell NRs) in coin cell, which solved three above problems. Such a design has multiple advantages: (1) ZnO nanoarrays minimizes the anode passivation and enhances the utilization of anode; (2) there is no dendrite problem due to 3D nanostructure of CP ZnO@TiN core/shell NRs; (3) the 3D CP framework and TiN coating, which encapsulates ZnO NRs, function as an electrical pathway so that all ZnO NRs are electrochemically active; (4) the TiN coating enables fast hydroxide/water diffusion as well as efficiently blocks zincates; (5) the TiN coating serves as mechanical backbone, which prevent anode structure fracture and shape change. As a result, 3D CP ZnO@TiN core/shell NRs anode achieves superior reversible performance compared with uncoated CP ZnO NRs. It delivers excellent long-term electrochemical performance as cycled under start-stop conditions.  We use coin cells for research, which are small, fast and easy to assemble yet rarely used for rechargeable Zn-Ni batteries. Our research makes it possible to bring rechargeable Zn-Ni coin cells to the market.</t>
   </si>
   <si>
     <t>Andrew</t>
@@ -2661,9 +2628,6 @@
   </si>
   <si>
     <t>This paper introduces a new backscattering sidechannel_x000D_ that is a consequence of impedance changes in switching_x000D_ circuits and is referred to as an impedance-based side-channel._x000D_ First, it was discussed how this side-channel is created by_x000D_ switching activity of transistors in microprocessors. It was_x000D_ demonstrated that the variation between high-state and low-state_x000D_ of transistors gates changes the radar cross section (RCS) of_x000D_ the processor which results in a modulated reflected signal that_x000D_ can be observed several meters away from the device. To better_x000D_ understand the backscatter channel created by electronic activity,_x000D_ a transistor-level impedance model and backscatter power model_x000D_ are also developed and tested against the measurements. Then,_x000D_ the spectral content of impedance side-channel is compared_x000D_ with those of power and EM side-channel and the differences_x000D_ are discussed. Finally, it was demonstrated that all three sidechannels_x000D_ can be used for malware detection in embedded devices.</t>
-  </si>
-  <si>
-    <t>The Emergency Department (ED) is a highly complex care delivery system with time-varying unscheduled arrivals, medium-to-long service times, multiple treatment stages and multiple patient classes. Managing such a complex service system is a challenge and appropriate staffing lies at the heart of this challenge. In this paper, we study a physician staffing problem in the ED with time-varying stochastic arrivals. Our objective is to determine the optimal staffing levels for ED physicians, coupled with practical patient routing rules, that cope with time-varying demand in a timely manner and satisfy safety-related and patient-class specific service goals. We develop an ``intuitive", ``realistic" and ``tractable" model of ED that is composed of a multi-class multi-stage queuing network with time-varying arrivals and multiple targeted service goals. Utilizing infinite-server approximation, we first approximate the expected physical and cognitive workload on physicians at each treatment stage in the ED. Then, by using a new staffing formula we developed, we convert the expected loads into staffing decisions that satisfy the targeted goals for each patient class. We prove that the new staffing rule asymptotically satisfies the desired convergence for stationary efficiency-driven queue regimes with no abandonment under the performance metric tail probability of delay. We numerically test the performance of this staffing algorithm in time-varying environments with sinusoidal arrival functions on a variety of network setups using a realistic ED simulation model. Finally, we apply the proposed staffing method, coupled with practical routing policies, to real patient flow-related timestamp data from Mayo Clinic for numerical analysis.</t>
   </si>
   <si>
     <t>Despite their microscopic size, bacteria have large impacts on our daily life from carbon and nitrogen cycling to infections and biofouling. Biofilm formation, virulence factor production, and bioluminescence are all examples of collective behaviors bacteria exhibit to impact the environment around them on a multi-microbe scale. The study of bacterial communication, termed quorum sensing (QS), has uncovered a highly coordinated mechanism of monitoring and producing signaling molecules, a simple system of decision making. This project focuses on both group and individual response to increasing population densities in an isogenic, homogenous environment in order to build upon the strong molecular work currently available. For this study, I utilized a lab strain of the opportunist pathogen Pseudomonas aeruginosa containing a transcription fusion of the QS regulated elastase promoter with a green fluorescent protein (GFP). This allowed for visualization of a passive non-fluorescent QS OFF state and an active green fluorescent QS ON state. While canonical work refers to quorum sensing as a threshold-like behavior with coordinated response, my work has discovered a high level of heterogeneity in response to increasing density. Cells were analyzed in bulk via microplate assays to understand population level response as well as via high powered microscopy to understand cellular response. By using a combination of molecular biology and by applying classic concepts in ecology and evolution, I plan on teasing apart this heterogeneity to understand how and speculate why a system that exists to coordinate behavior exhibits so much variation.</t>
@@ -2942,6 +2906,13 @@
   </si>
   <si>
     <t>Saurabh Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechargeable Zn-based batteries are a safe alternative to Li-ion for compatibility with aqueous electrolyte. Also, theoretical volumetric energy density of Zn-based batteries (e.g. Zn-air) is ~85% of lithium-sulfur battery. However, the performance of Zn anode is limited by passivation and dissolution. Here we report a ZnO@TiN core/shell nanorod structure for rechargeable Zn anode. The small diameter (&lt;500 nm) of ZnO prevents passivation and allows full utilization of active materials, while the thin and conformal titanium nitride (TiN) coating mitigates Zn dissolution in alkaline electrolyte, mechanically maintains the nanostructure, and delivers electron to nanorods. As a result, the ZnO@TiN core/shell nanorod anode achieves superior battery performance compared with bulk Zn foil or uncoated ZnO nanorod anode. It delivers excellent long-term electrochemical performance (more than 7,500 cycles) as cycled under start-stop conditions. The nanoscale design principles reported here can potentially be applied to overcome other intrinsic limitations of Zn anodes and other battery materials.
+</t>
+  </si>
+  <si>
+    <t>Sealing ZnO nanorods for rechargeable aqueous high-energy battery anodes</t>
   </si>
 </sst>
 </file>
@@ -3809,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,7 +3800,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3838,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3879,116 +3850,116 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>862</v>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4</v>
+      <c r="A4">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
+      <c r="A6">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -4003,70 +3974,70 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>905</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>8</v>
+      <c r="A8">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -4075,99 +4046,99 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>841</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>867</v>
+      </c>
+      <c r="I11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
-        <v>852</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>879</v>
-      </c>
       <c r="I12" t="s">
-        <v>863</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>15</v>
+      <c r="A14" s="2">
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -4179,47 +4150,47 @@
         <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
       </c>
       <c r="I14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>17</v>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -4231,73 +4202,73 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
-        <v>867</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>20</v>
+      <c r="A19">
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -4309,47 +4280,47 @@
         <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21</v>
+      <c r="A20" s="2">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -4361,73 +4332,73 @@
         <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>516</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="I21" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
-        <v>525</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>25</v>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
@@ -4439,21 +4410,21 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>125</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>26</v>
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>127</v>
@@ -4465,47 +4436,47 @@
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
         <v>130</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
         <v>135</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>136</v>
@@ -4520,174 +4491,174 @@
         <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>873</v>
+      <c r="I27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
         <v>145</v>
       </c>
       <c r="I28" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>148</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
         <v>149</v>
       </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="I29" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
         <v>154</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>32</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="I31" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>33</v>
+      <c r="A32" s="2">
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
         <v>165</v>
       </c>
       <c r="I32" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>167</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>168</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>169</v>
       </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
         <v>170</v>
       </c>
       <c r="I33" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>171</v>
@@ -4702,18 +4673,18 @@
         <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
         <v>175</v>
       </c>
-      <c r="I34" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>176</v>
@@ -4728,18 +4699,18 @@
         <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>872</v>
+      <c r="I35" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>37</v>
+      <c r="A36">
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -4754,18 +4725,18 @@
         <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
         <v>185</v>
       </c>
       <c r="I36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
+      <c r="A37" s="2">
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>186</v>
@@ -4780,70 +4751,70 @@
         <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>39</v>
+      <c r="A38">
+        <v>40</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>191</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>192</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>193</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>194</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>42</v>
+      <c r="A40" s="2">
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>201</v>
@@ -4855,21 +4826,21 @@
         <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>206</v>
@@ -4884,18 +4855,18 @@
         <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
         <v>210</v>
       </c>
       <c r="I41" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44</v>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>211</v>
@@ -4907,21 +4878,21 @@
         <v>213</v>
       </c>
       <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
         <v>214</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I42" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>45</v>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>216</v>
@@ -4933,21 +4904,21 @@
         <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
         <v>219</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>46</v>
+      <c r="A44">
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>221</v>
@@ -4959,10 +4930,10 @@
         <v>223</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
         <v>224</v>
@@ -4971,76 +4942,76 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C45" t="s">
+      <c r="I45" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>227</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C46" t="s">
         <v>228</v>
       </c>
-      <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="E46" t="s">
         <v>229</v>
       </c>
-      <c r="I45" t="s">
+      <c r="F46" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>49</v>
-      </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
         <v>236</v>
@@ -5049,9 +5020,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>238</v>
@@ -5063,21 +5034,21 @@
         <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>842</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
         <v>241</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>51</v>
+    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>243</v>
@@ -5089,10 +5060,10 @@
         <v>245</v>
       </c>
       <c r="F49" t="s">
-        <v>853</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
         <v>246</v>
@@ -5101,9 +5072,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>52</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>248</v>
@@ -5115,21 +5086,21 @@
         <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>843</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>53</v>
+    <row r="51" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>253</v>
@@ -5141,47 +5112,47 @@
         <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>854</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>54</v>
+      <c r="I51" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
         <v>262</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>264</v>
@@ -5193,10 +5164,10 @@
         <v>266</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
         <v>267</v>
@@ -5207,7 +5178,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>269</v>
@@ -5219,140 +5190,140 @@
         <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
         <v>272</v>
       </c>
       <c r="I54" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>58</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>274</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>275</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>276</v>
       </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
         <v>277</v>
       </c>
-      <c r="I55" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>59</v>
+      <c r="I55" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F56" t="s">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
         <v>282</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>284</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>285</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>886</v>
+      <c r="I57" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>62</v>
+      <c r="A58">
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>63</v>
+      <c r="A59" s="2">
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
         <v>298</v>
@@ -5363,7 +5334,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>300</v>
@@ -5375,73 +5346,73 @@
         <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="H60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>65</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>310</v>
-      </c>
-      <c r="I61" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>66</v>
+      <c r="I61" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>316</v>
-      </c>
-      <c r="I62" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>67</v>
+      <c r="I62" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>318</v>
@@ -5453,21 +5424,21 @@
         <v>320</v>
       </c>
       <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
         <v>321</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I63" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>68</v>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>323</v>
@@ -5479,218 +5450,218 @@
         <v>325</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
         <v>326</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>70</v>
+      <c r="A66" s="2">
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E66" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
         <v>337</v>
       </c>
       <c r="I66" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
         <v>339</v>
       </c>
-      <c r="C67" t="s">
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
         <v>340</v>
       </c>
-      <c r="E67" t="s">
+      <c r="I67" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F67" t="s">
-        <v>200</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>342</v>
-      </c>
-      <c r="I67" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="s">
         <v>343</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>344</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>346</v>
       </c>
-      <c r="I68" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>347</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="E69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E71" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F71" t="s">
-        <v>359</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>360</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="I71" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
-      </c>
-      <c r="E72" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="F72" t="s">
-        <v>365</v>
+        <v>845</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
         <v>366</v>
@@ -5700,8 +5671,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>77</v>
+      <c r="A73" s="2">
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>368</v>
@@ -5713,10 +5684,10 @@
         <v>370</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>844</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
         <v>371</v>
@@ -5725,9 +5696,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>78</v>
+    <row r="74" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>373</v>
@@ -5735,103 +5706,103 @@
       <c r="C74" t="s">
         <v>374</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>847</v>
+      <c r="E74" t="s">
+        <v>375</v>
       </c>
       <c r="F74" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>375</v>
-      </c>
-      <c r="I74" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F75" t="s">
-        <v>855</v>
+        <v>381</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>380</v>
-      </c>
-      <c r="I75" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
-      </c>
-      <c r="E76" t="s">
         <v>384</v>
       </c>
+      <c r="E76" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="F76" t="s">
-        <v>851</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
         <v>385</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s">
         <v>387</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>388</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>389</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
         <v>390</v>
       </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>391</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>392</v>
@@ -5839,77 +5810,77 @@
       <c r="C78" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>857</v>
+      <c r="E78" t="s">
+        <v>394</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F79" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
         <v>399</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>401</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>402</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
         <v>403</v>
       </c>
-      <c r="F80" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>404</v>
       </c>
-      <c r="I80" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>85</v>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>405</v>
@@ -5921,203 +5892,203 @@
         <v>407</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
-      <c r="H81" t="s">
-        <v>408</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>910</v>
+      <c r="H81" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s">
         <v>409</v>
       </c>
-      <c r="C82" t="s">
+      <c r="F82" t="s">
+        <v>329</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
         <v>410</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>411</v>
-      </c>
-      <c r="F82" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>412</v>
-      </c>
-      <c r="I82" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>802</v>
+      </c>
+      <c r="C83" t="s">
+        <v>801</v>
+      </c>
+      <c r="E83" t="s">
+        <v>412</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>413</v>
+      </c>
+      <c r="I83" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
         <v>414</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>415</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>416</v>
       </c>
-      <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F84" t="s">
+        <v>837</v>
+      </c>
+      <c r="G84" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="H84" t="s">
         <v>417</v>
       </c>
-      <c r="C84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="I84" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F84" t="s">
-        <v>336</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>419</v>
-      </c>
-      <c r="I84" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>813</v>
+        <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>812</v>
+        <v>420</v>
       </c>
       <c r="E85" t="s">
         <v>421</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
         <v>422</v>
       </c>
       <c r="I85" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F86" t="s">
-        <v>848</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>426</v>
-      </c>
-      <c r="I86" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="I86" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>91</v>
+      <c r="A87" s="2">
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C87" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>92</v>
+      <c r="A88">
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C88" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I88" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>438</v>
@@ -6129,21 +6100,21 @@
         <v>440</v>
       </c>
       <c r="F89" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
         <v>441</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>443</v>
@@ -6155,99 +6126,99 @@
         <v>445</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
         <v>446</v>
       </c>
       <c r="I90" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C91" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E91" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>450</v>
-      </c>
-      <c r="I91" s="1" t="s">
         <v>451</v>
+      </c>
+      <c r="I91" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E92" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E93" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I93" t="s">
-        <v>461</v>
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>98</v>
+      <c r="A94" s="2">
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>462</v>
@@ -6255,14 +6226,17 @@
       <c r="C94" t="s">
         <v>463</v>
       </c>
+      <c r="D94" t="s">
+        <v>803</v>
+      </c>
       <c r="E94" t="s">
         <v>464</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
         <v>465</v>
@@ -6272,8 +6246,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>99</v>
+      <c r="A95">
+        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>467</v>
@@ -6285,102 +6259,99 @@
         <v>469</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
         <v>470</v>
       </c>
       <c r="I95" t="s">
-        <v>891</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>471</v>
+        <v>804</v>
       </c>
       <c r="C96" t="s">
+        <v>805</v>
+      </c>
+      <c r="E96" t="s">
         <v>472</v>
       </c>
-      <c r="D96" t="s">
-        <v>814</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
+        <v>843</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
         <v>473</v>
       </c>
-      <c r="F96" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>474</v>
       </c>
-      <c r="I96" t="s">
+    </row>
+    <row r="97" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>476</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>477</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>843</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
         <v>478</v>
       </c>
-      <c r="F97" t="s">
-        <v>200</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="I97" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>815</v>
+        <v>480</v>
       </c>
       <c r="C98" t="s">
-        <v>816</v>
+        <v>481</v>
       </c>
       <c r="E98" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F98" t="s">
-        <v>854</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I98" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>484</v>
@@ -6392,47 +6363,47 @@
         <v>486</v>
       </c>
       <c r="F99" t="s">
-        <v>854</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
         <v>487</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" t="s">
         <v>489</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>490</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
         <v>491</v>
       </c>
-      <c r="F100" t="s">
-        <v>315</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>492</v>
       </c>
-      <c r="I100" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>105</v>
+      <c r="A101" s="2">
+        <v>107</v>
       </c>
       <c r="B101" t="s">
         <v>493</v>
@@ -6444,10 +6415,10 @@
         <v>495</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
         <v>496</v>
@@ -6457,546 +6428,546 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>106</v>
+      <c r="A102">
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>503</v>
       </c>
       <c r="C102" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E102" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="I102" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C103" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E103" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>505</v>
-      </c>
-      <c r="I103" t="s">
-        <v>506</v>
+        <v>511</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E104" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>516</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C105" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E105" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>501</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>520</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="I105" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>522</v>
+        <v>806</v>
       </c>
       <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" t="s">
         <v>523</v>
       </c>
-      <c r="E106" t="s">
-        <v>524</v>
-      </c>
       <c r="F106" t="s">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>526</v>
-      </c>
-      <c r="I106" t="s">
-        <v>527</v>
+        <v>920</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
+        <v>524</v>
+      </c>
+      <c r="C107" t="s">
+        <v>525</v>
+      </c>
+      <c r="E107" t="s">
+        <v>526</v>
+      </c>
+      <c r="F107" t="s">
+        <v>527</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
         <v>528</v>
       </c>
-      <c r="C107" t="s">
+      <c r="I107" t="s">
         <v>529</v>
       </c>
-      <c r="E107" t="s">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108" t="s">
         <v>530</v>
       </c>
-      <c r="F107" t="s">
-        <v>510</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="E108" t="s">
         <v>531</v>
       </c>
-      <c r="I107" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>112</v>
-      </c>
-      <c r="B108" t="s">
-        <v>817</v>
-      </c>
-      <c r="C108" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
+        <v>310</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
         <v>532</v>
       </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
         <v>533</v>
       </c>
-      <c r="I108" t="s">
+      <c r="C109" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>113</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
         <v>535</v>
       </c>
-      <c r="C109" t="s">
-        <v>536</v>
-      </c>
-      <c r="E109" t="s">
-        <v>537</v>
-      </c>
       <c r="F109" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>539</v>
+        <v>899</v>
       </c>
       <c r="I109" t="s">
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C110" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E110" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F110" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I110" t="s">
-        <v>896</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
+        <v>541</v>
+      </c>
+      <c r="C111" t="s">
+        <v>542</v>
+      </c>
+      <c r="E111" t="s">
+        <v>543</v>
+      </c>
+      <c r="F111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
         <v>544</v>
       </c>
-      <c r="C111" t="s">
-        <v>545</v>
-      </c>
-      <c r="E111" t="s">
-        <v>546</v>
-      </c>
-      <c r="F111" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s">
-        <v>911</v>
-      </c>
       <c r="I111" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
+        <v>545</v>
+      </c>
+      <c r="C112" t="s">
+        <v>546</v>
+      </c>
+      <c r="E112" t="s">
         <v>547</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
         <v>548</v>
       </c>
-      <c r="E112" t="s">
+      <c r="I112" t="s">
         <v>549</v>
-      </c>
-      <c r="F112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" t="s">
-        <v>550</v>
-      </c>
-      <c r="I112" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
+        <v>550</v>
+      </c>
+      <c r="C113" t="s">
+        <v>551</v>
+      </c>
+      <c r="E113" t="s">
         <v>552</v>
       </c>
-      <c r="C113" t="s">
+      <c r="F113" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
         <v>553</v>
       </c>
-      <c r="E113" t="s">
+      <c r="I113" t="s">
         <v>554</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
-        <v>555</v>
-      </c>
-      <c r="I113" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
+        <v>555</v>
+      </c>
+      <c r="C114" t="s">
         <v>556</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>557</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>501</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
         <v>558</v>
       </c>
-      <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
         <v>559</v>
       </c>
-      <c r="I114" t="s">
+      <c r="C115" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>119</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>561</v>
       </c>
-      <c r="C115" t="s">
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
         <v>562</v>
       </c>
-      <c r="E115" t="s">
+      <c r="I115" t="s">
         <v>563</v>
       </c>
-      <c r="F115" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s">
-        <v>564</v>
-      </c>
-      <c r="I115" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>566</v>
+        <v>913</v>
       </c>
       <c r="C116" t="s">
-        <v>567</v>
+        <v>914</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>918</v>
       </c>
       <c r="E116" t="s">
-        <v>568</v>
+        <v>915</v>
       </c>
       <c r="F116" t="s">
-        <v>510</v>
+        <v>25</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
-      </c>
-      <c r="I116" t="s">
-        <v>894</v>
+        <v>916</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
+        <v>564</v>
+      </c>
+      <c r="C117" t="s">
+        <v>565</v>
+      </c>
+      <c r="E117" t="s">
+        <v>566</v>
+      </c>
+      <c r="F117" t="s">
+        <v>843</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>567</v>
+      </c>
+      <c r="I117" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>568</v>
+      </c>
+      <c r="C118" t="s">
+        <v>290</v>
+      </c>
+      <c r="E118" t="s">
+        <v>569</v>
+      </c>
+      <c r="F118" t="s">
+        <v>838</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
         <v>570</v>
       </c>
-      <c r="C117" t="s">
+      <c r="I118" t="s">
         <v>571</v>
-      </c>
-      <c r="E117" t="s">
-        <v>572</v>
-      </c>
-      <c r="F117" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s">
-        <v>573</v>
-      </c>
-      <c r="I117" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>122</v>
-      </c>
-      <c r="B118" t="s">
-        <v>925</v>
-      </c>
-      <c r="C118" t="s">
-        <v>926</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="E118" t="s">
-        <v>927</v>
-      </c>
-      <c r="F118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s">
-        <v>928</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
+        <v>572</v>
+      </c>
+      <c r="C119" t="s">
+        <v>573</v>
+      </c>
+      <c r="E119" t="s">
+        <v>574</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
         <v>575</v>
       </c>
-      <c r="C119" t="s">
+      <c r="I119" t="s">
         <v>576</v>
       </c>
-      <c r="E119" t="s">
+    </row>
+    <row r="120" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
         <v>577</v>
       </c>
-      <c r="F119" t="s">
-        <v>854</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="C120" t="s">
         <v>578</v>
       </c>
-      <c r="I119" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>124</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="E120" t="s">
         <v>579</v>
       </c>
-      <c r="C120" t="s">
-        <v>295</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
         <v>580</v>
       </c>
-      <c r="F120" t="s">
-        <v>849</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I120" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="I120" t="s">
+    </row>
+    <row r="121" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>125</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>583</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>584</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
+        <v>184</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
         <v>585</v>
       </c>
-      <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I121" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="I121" t="s">
+    </row>
+    <row r="122" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>126</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>588</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>589</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>590</v>
       </c>
-      <c r="F122" t="s">
-        <v>42</v>
-      </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
         <v>591</v>
@@ -7005,9 +6976,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>127</v>
+    <row r="123" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>593</v>
@@ -7019,21 +6990,21 @@
         <v>595</v>
       </c>
       <c r="F123" t="s">
-        <v>189</v>
+        <v>596</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>598</v>
@@ -7045,684 +7016,690 @@
         <v>600</v>
       </c>
       <c r="F124" t="s">
+        <v>843</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
         <v>601</v>
       </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
         <v>602</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="C125" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>129</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>604</v>
       </c>
-      <c r="C125" t="s">
+      <c r="F125" t="s">
         <v>605</v>
       </c>
-      <c r="E125" t="s">
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
         <v>606</v>
       </c>
-      <c r="F125" t="s">
+      <c r="I125" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
         <v>607</v>
       </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="C126" t="s">
+        <v>415</v>
+      </c>
+      <c r="E126" t="s">
         <v>608</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>130</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
         <v>609</v>
       </c>
-      <c r="C126" t="s">
+      <c r="I126" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
         <v>610</v>
       </c>
-      <c r="E126" t="s">
+      <c r="C127" t="s">
         <v>611</v>
       </c>
-      <c r="F126" t="s">
-        <v>854</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="E127" t="s">
         <v>612</v>
       </c>
-      <c r="I126" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>131</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="F127" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
         <v>613</v>
       </c>
-      <c r="C127" t="s">
+      <c r="I127" t="s">
         <v>614</v>
       </c>
-      <c r="E127" t="s">
+    </row>
+    <row r="128" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
         <v>615</v>
       </c>
-      <c r="F127" t="s">
+      <c r="C128" t="s">
+        <v>415</v>
+      </c>
+      <c r="E128" t="s">
         <v>616</v>
       </c>
-      <c r="G127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
         <v>617</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>132</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="I128" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
         <v>618</v>
       </c>
-      <c r="C128" t="s">
-        <v>424</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C129" t="s">
         <v>619</v>
       </c>
-      <c r="F128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="E129" t="s">
         <v>620</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>133</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="F129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
         <v>621</v>
       </c>
-      <c r="C129" t="s">
+      <c r="I129" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
         <v>622</v>
       </c>
-      <c r="E129" t="s">
+      <c r="C130" t="s">
         <v>623</v>
       </c>
-      <c r="F129" t="s">
-        <v>61</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="E130" t="s">
         <v>624</v>
       </c>
-      <c r="I129" t="s">
+      <c r="F130" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>134</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="I130" t="s">
         <v>626</v>
       </c>
-      <c r="C130" t="s">
-        <v>424</v>
-      </c>
-      <c r="E130" t="s">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
         <v>627</v>
       </c>
-      <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="C131" t="s">
         <v>628</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>135</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="E131" t="s">
         <v>629</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
         <v>630</v>
       </c>
-      <c r="E131" t="s">
+      <c r="I131" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
         <v>631</v>
       </c>
-      <c r="F131" t="s">
-        <v>107</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="C132" t="s">
         <v>632</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>136</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>633</v>
       </c>
-      <c r="C132" t="s">
+      <c r="F132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
         <v>634</v>
       </c>
-      <c r="E132" t="s">
+      <c r="I132" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
         <v>636</v>
       </c>
-      <c r="I132" t="s">
+      <c r="C133" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>137</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>638</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
         <v>639</v>
       </c>
-      <c r="E133" t="s">
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>888</v>
+      </c>
+      <c r="I133" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
         <v>640</v>
       </c>
-      <c r="F133" t="s">
-        <v>73</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="C134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" t="s">
+        <v>808</v>
+      </c>
+      <c r="E134" t="s">
         <v>641</v>
       </c>
-      <c r="I133" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>138</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="F134" t="s">
+        <v>56</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>908</v>
+      </c>
+      <c r="I134" t="s">
         <v>642</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" t="s">
         <v>643</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D135" t="s">
+        <v>809</v>
+      </c>
+      <c r="E135" t="s">
         <v>644</v>
       </c>
-      <c r="F134" t="s">
-        <v>30</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="F135" t="s">
+        <v>56</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
         <v>645</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I135" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>140</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
         <v>647</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>648</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>649</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>650</v>
       </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" t="s">
-        <v>900</v>
-      </c>
-      <c r="I135" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>141</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
         <v>651</v>
       </c>
-      <c r="C136" t="s">
-        <v>92</v>
-      </c>
-      <c r="D136" t="s">
-        <v>819</v>
-      </c>
-      <c r="E136" t="s">
-        <v>652</v>
-      </c>
-      <c r="F136" t="s">
-        <v>61</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>920</v>
-      </c>
-      <c r="I136" t="s">
-        <v>653</v>
+      <c r="I136" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>226</v>
+        <v>652</v>
       </c>
       <c r="C137" t="s">
+        <v>653</v>
+      </c>
+      <c r="D137" t="s">
+        <v>810</v>
+      </c>
+      <c r="E137" t="s">
         <v>654</v>
       </c>
-      <c r="D137" t="s">
-        <v>820</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
+        <v>102</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
         <v>655</v>
       </c>
-      <c r="F137" t="s">
-        <v>61</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>656</v>
       </c>
-      <c r="I137" t="s">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>143</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>658</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>811</v>
+      </c>
+      <c r="E138" t="s">
         <v>659</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>660</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
         <v>661</v>
       </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>662</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
         <v>663</v>
       </c>
       <c r="C139" t="s">
+        <v>115</v>
+      </c>
+      <c r="E139" t="s">
         <v>664</v>
       </c>
-      <c r="D139" t="s">
-        <v>821</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
         <v>665</v>
       </c>
-      <c r="F139" t="s">
-        <v>107</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
         <v>666</v>
       </c>
-      <c r="I139" t="s">
+      <c r="C140" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>145</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="E140" t="s">
         <v>668</v>
       </c>
-      <c r="C140" t="s">
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
         <v>669</v>
       </c>
-      <c r="D140" t="s">
-        <v>822</v>
-      </c>
-      <c r="E140" t="s">
-        <v>670</v>
-      </c>
-      <c r="F140" t="s">
-        <v>671</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="I140" t="s">
-        <v>673</v>
+      <c r="I140" s="1" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
+        <v>670</v>
+      </c>
+      <c r="C141" t="s">
+        <v>671</v>
+      </c>
+      <c r="D141" t="s">
+        <v>812</v>
+      </c>
+      <c r="E141" t="s">
+        <v>672</v>
+      </c>
+      <c r="F141" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>673</v>
+      </c>
+      <c r="I141" t="s">
         <v>674</v>
       </c>
-      <c r="C141" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" t="s">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>657</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>813</v>
+      </c>
+      <c r="E142" t="s">
         <v>675</v>
       </c>
-      <c r="F141" t="s">
-        <v>61</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
         <v>676</v>
       </c>
-      <c r="I141" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>147</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="I142" t="s">
         <v>677</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" t="s">
         <v>678</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>679</v>
       </c>
-      <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="F143" t="s">
+        <v>195</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
         <v>680</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>148</v>
-      </c>
-      <c r="B143" t="s">
-        <v>681</v>
-      </c>
-      <c r="C143" t="s">
-        <v>682</v>
-      </c>
-      <c r="D143" t="s">
-        <v>823</v>
-      </c>
-      <c r="E143" t="s">
-        <v>683</v>
-      </c>
-      <c r="F143" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" t="s">
-        <v>684</v>
-      </c>
       <c r="I143" t="s">
-        <v>685</v>
+        <v>911</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C144" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="E144" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I144" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>238</v>
+        <v>685</v>
       </c>
       <c r="C145" t="s">
+        <v>686</v>
+      </c>
+      <c r="D145" t="s">
+        <v>815</v>
+      </c>
+      <c r="E145" t="s">
+        <v>687</v>
+      </c>
+      <c r="F145" t="s">
+        <v>688</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
         <v>689</v>
       </c>
-      <c r="E145" t="s">
-        <v>690</v>
-      </c>
-      <c r="F145" t="s">
-        <v>200</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
-        <v>691</v>
-      </c>
       <c r="I145" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>692</v>
+        <v>498</v>
       </c>
       <c r="C146" t="s">
-        <v>155</v>
-      </c>
-      <c r="D146" t="s">
-        <v>825</v>
+        <v>499</v>
       </c>
       <c r="E146" t="s">
-        <v>693</v>
+        <v>500</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>501</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>694</v>
+        <v>502</v>
       </c>
       <c r="I146" t="s">
-        <v>695</v>
+        <v>865</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C147" t="s">
-        <v>697</v>
-      </c>
-      <c r="D147" t="s">
-        <v>826</v>
+        <v>691</v>
       </c>
       <c r="E147" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F147" t="s">
-        <v>699</v>
+        <v>56</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="I147" t="s">
-        <v>903</v>
+        <v>694</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>507</v>
+        <v>695</v>
       </c>
       <c r="C148" t="s">
-        <v>508</v>
+        <v>696</v>
+      </c>
+      <c r="D148" t="s">
+        <v>816</v>
       </c>
       <c r="E148" t="s">
-        <v>509</v>
+        <v>697</v>
       </c>
       <c r="F148" t="s">
-        <v>510</v>
+        <v>25</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>511</v>
+        <v>698</v>
       </c>
       <c r="I148" t="s">
-        <v>877</v>
+        <v>699</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>154</v>
+      <c r="A149" s="2">
+        <v>156</v>
       </c>
       <c r="B149" t="s">
+        <v>700</v>
+      </c>
+      <c r="C149" t="s">
         <v>701</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>817</v>
+      </c>
+      <c r="E149" t="s">
         <v>702</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>703</v>
       </c>
-      <c r="F149" t="s">
-        <v>61</v>
-      </c>
       <c r="G149" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
         <v>704</v>
@@ -7732,8 +7709,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>155</v>
+      <c r="A150">
+        <v>157</v>
       </c>
       <c r="B150" t="s">
         <v>706</v>
@@ -7741,17 +7718,14 @@
       <c r="C150" t="s">
         <v>707</v>
       </c>
-      <c r="D150" t="s">
-        <v>827</v>
-      </c>
       <c r="E150" t="s">
         <v>708</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>843</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
         <v>709</v>
@@ -7762,7 +7736,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
         <v>711</v>
@@ -7771,7 +7745,7 @@
         <v>712</v>
       </c>
       <c r="D151" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="E151" t="s">
         <v>713</v>
@@ -7780,137 +7754,134 @@
         <v>714</v>
       </c>
       <c r="G151" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
         <v>715</v>
       </c>
       <c r="I151" t="s">
-        <v>716</v>
+        <v>912</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" t="s">
+        <v>716</v>
+      </c>
+      <c r="E152" t="s">
         <v>717</v>
       </c>
-      <c r="C152" t="s">
+      <c r="F152" t="s">
+        <v>25</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
         <v>718</v>
       </c>
-      <c r="E152" t="s">
+      <c r="I152" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>444</v>
+      </c>
+      <c r="C153" t="s">
         <v>719</v>
       </c>
-      <c r="F152" t="s">
-        <v>854</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="D153" t="s">
+        <v>819</v>
+      </c>
+      <c r="E153" t="s">
         <v>720</v>
       </c>
-      <c r="I152" t="s">
+      <c r="F153" t="s">
+        <v>134</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>158</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="I153" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>161</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>444</v>
+      </c>
+      <c r="D154" t="s">
+        <v>820</v>
+      </c>
+      <c r="E154" t="s">
         <v>723</v>
       </c>
-      <c r="D153" t="s">
-        <v>829</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F154" t="s">
         <v>724</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
         <v>725</v>
       </c>
-      <c r="G153" t="s">
-        <v>17</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I154" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="I153" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>159</v>
-      </c>
-      <c r="B154" t="s">
-        <v>104</v>
-      </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
         <v>727</v>
       </c>
-      <c r="E154" t="s">
+      <c r="C155" t="s">
         <v>728</v>
       </c>
-      <c r="F154" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="E155" t="s">
         <v>729</v>
       </c>
-      <c r="I154" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>160</v>
-      </c>
-      <c r="B155" t="s">
-        <v>453</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="F155" t="s">
+        <v>292</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
         <v>730</v>
       </c>
-      <c r="D155" t="s">
-        <v>830</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="I155" t="s">
         <v>731</v>
       </c>
-      <c r="F155" t="s">
-        <v>139</v>
-      </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
+    </row>
+    <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>163</v>
+      </c>
+      <c r="B156" t="s">
         <v>732</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="C156" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>161</v>
-      </c>
-      <c r="B156" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" t="s">
-        <v>453</v>
-      </c>
-      <c r="D156" t="s">
-        <v>831</v>
       </c>
       <c r="E156" t="s">
         <v>734</v>
@@ -7919,7 +7890,7 @@
         <v>735</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
         <v>736</v>
@@ -7929,8 +7900,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>162</v>
+      <c r="A157">
+        <v>164</v>
       </c>
       <c r="B157" t="s">
         <v>738</v>
@@ -7938,14 +7909,17 @@
       <c r="C157" t="s">
         <v>739</v>
       </c>
+      <c r="D157" t="s">
+        <v>821</v>
+      </c>
       <c r="E157" t="s">
         <v>740</v>
       </c>
       <c r="F157" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
         <v>741</v>
@@ -7954,439 +7928,385 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B158" t="s">
         <v>743</v>
       </c>
       <c r="C158" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" t="s">
+        <v>822</v>
+      </c>
+      <c r="E158" t="s">
         <v>744</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>745</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
         <v>746</v>
       </c>
-      <c r="G158" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>747</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
+        <v>748</v>
+      </c>
+      <c r="C159" t="s">
         <v>749</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>823</v>
+      </c>
+      <c r="E159" t="s">
         <v>750</v>
       </c>
-      <c r="D159" t="s">
-        <v>832</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
+        <v>688</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
         <v>751</v>
       </c>
-      <c r="F159" t="s">
-        <v>315</v>
-      </c>
-      <c r="G159" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>167</v>
+      </c>
+      <c r="B160" t="s">
         <v>752</v>
       </c>
-      <c r="I159" t="s">
+      <c r="C160" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>165</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
+        <v>824</v>
+      </c>
+      <c r="E160" t="s">
         <v>754</v>
       </c>
-      <c r="C160" t="s">
-        <v>477</v>
-      </c>
-      <c r="D160" t="s">
-        <v>833</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>755</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
         <v>756</v>
       </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>757</v>
-      </c>
-      <c r="I160" t="s">
-        <v>758</v>
+      <c r="I160" s="1" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
+        <v>757</v>
+      </c>
+      <c r="C161" t="s">
+        <v>758</v>
+      </c>
+      <c r="D161" t="s">
+        <v>825</v>
+      </c>
+      <c r="E161" t="s">
         <v>759</v>
       </c>
-      <c r="C161" t="s">
+      <c r="F161" t="s">
+        <v>189</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
         <v>760</v>
       </c>
-      <c r="D161" t="s">
-        <v>834</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="I161" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>169</v>
+      </c>
+      <c r="B162" t="s">
         <v>761</v>
       </c>
-      <c r="F161" t="s">
-        <v>699</v>
-      </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="C162" t="s">
         <v>762</v>
       </c>
-      <c r="I161" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>167</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
+        <v>826</v>
+      </c>
+      <c r="E162" t="s">
         <v>763</v>
       </c>
-      <c r="C162" t="s">
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
         <v>764</v>
       </c>
-      <c r="D162" t="s">
-        <v>835</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="I162" t="s">
         <v>765</v>
       </c>
-      <c r="F162" t="s">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
         <v>766</v>
       </c>
-      <c r="G162" t="s">
-        <v>17</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="C163" t="s">
         <v>767</v>
       </c>
-      <c r="I162" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>168</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="D163" t="s">
+        <v>827</v>
+      </c>
+      <c r="E163" t="s">
         <v>768</v>
       </c>
-      <c r="C163" t="s">
+      <c r="F163" t="s">
+        <v>310</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
         <v>769</v>
       </c>
-      <c r="D163" t="s">
-        <v>836</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="I163" t="s">
         <v>770</v>
       </c>
-      <c r="F163" t="s">
-        <v>194</v>
-      </c>
-      <c r="G163" t="s">
-        <v>17</v>
-      </c>
-      <c r="H163" t="s">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>171</v>
+      </c>
+      <c r="B164" t="s">
         <v>771</v>
       </c>
-      <c r="I163" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>169</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>828</v>
+      </c>
+      <c r="E164" t="s">
         <v>772</v>
       </c>
-      <c r="C164" t="s">
+      <c r="F164" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
         <v>773</v>
       </c>
-      <c r="D164" t="s">
-        <v>837</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="I164" t="s">
         <v>774</v>
-      </c>
-      <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" t="s">
-        <v>775</v>
-      </c>
-      <c r="I164" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
+        <v>775</v>
+      </c>
+      <c r="C165" t="s">
+        <v>415</v>
+      </c>
+      <c r="D165" t="s">
+        <v>829</v>
+      </c>
+      <c r="E165" t="s">
+        <v>776</v>
+      </c>
+      <c r="F165" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
         <v>777</v>
       </c>
-      <c r="C165" t="s">
+      <c r="I165" t="s">
         <v>778</v>
-      </c>
-      <c r="D165" t="s">
-        <v>838</v>
-      </c>
-      <c r="E165" t="s">
-        <v>779</v>
-      </c>
-      <c r="F165" t="s">
-        <v>315</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" t="s">
-        <v>780</v>
-      </c>
-      <c r="I165" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
+        <v>779</v>
+      </c>
+      <c r="C166" t="s">
+        <v>780</v>
+      </c>
+      <c r="D166" t="s">
+        <v>830</v>
+      </c>
+      <c r="E166" t="s">
+        <v>781</v>
+      </c>
+      <c r="F166" t="s">
+        <v>310</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
         <v>782</v>
       </c>
-      <c r="C166" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" t="s">
-        <v>839</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="I166" t="s">
         <v>783</v>
       </c>
-      <c r="F166" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" t="s">
+    </row>
+    <row r="167" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
         <v>784</v>
       </c>
-      <c r="I166" t="s">
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>172</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="F167" t="s">
+        <v>108</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
         <v>786</v>
       </c>
-      <c r="C167" t="s">
-        <v>424</v>
-      </c>
-      <c r="D167" t="s">
-        <v>840</v>
-      </c>
-      <c r="E167" t="s">
-        <v>787</v>
-      </c>
-      <c r="F167" t="s">
-        <v>30</v>
-      </c>
-      <c r="G167" t="s">
-        <v>17</v>
-      </c>
-      <c r="H167" t="s">
-        <v>788</v>
-      </c>
-      <c r="I167" t="s">
-        <v>789</v>
+      <c r="I167" s="1" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B168" t="s">
+        <v>787</v>
+      </c>
+      <c r="C168" t="s">
+        <v>788</v>
+      </c>
+      <c r="D168" t="s">
+        <v>831</v>
+      </c>
+      <c r="E168" t="s">
+        <v>789</v>
+      </c>
+      <c r="F168" t="s">
+        <v>839</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
         <v>790</v>
       </c>
-      <c r="C168" t="s">
+      <c r="I168" t="s">
         <v>791</v>
       </c>
-      <c r="D168" t="s">
-        <v>841</v>
-      </c>
-      <c r="E168" t="s">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>176</v>
+      </c>
+      <c r="B169" t="s">
         <v>792</v>
       </c>
-      <c r="F168" t="s">
-        <v>315</v>
-      </c>
-      <c r="G168" t="s">
-        <v>17</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="C169" t="s">
+        <v>157</v>
+      </c>
+      <c r="D169" t="s">
+        <v>832</v>
+      </c>
+      <c r="E169" t="s">
         <v>793</v>
       </c>
-      <c r="I168" t="s">
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>174</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="I169" t="s">
         <v>795</v>
       </c>
-      <c r="C169" t="s">
-        <v>54</v>
-      </c>
-      <c r="E169" t="s">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>177</v>
+      </c>
+      <c r="B170" t="s">
         <v>796</v>
       </c>
-      <c r="F169" t="s">
-        <v>113</v>
-      </c>
-      <c r="G169" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="C170" t="s">
         <v>797</v>
       </c>
-      <c r="I169" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>175</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="E170" t="s">
         <v>798</v>
       </c>
-      <c r="C170" t="s">
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
         <v>799</v>
       </c>
-      <c r="D170" t="s">
-        <v>842</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="I170" t="s">
         <v>800</v>
-      </c>
-      <c r="F170" t="s">
-        <v>850</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s">
-        <v>801</v>
-      </c>
-      <c r="I170" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>176</v>
-      </c>
-      <c r="B171" t="s">
-        <v>803</v>
-      </c>
-      <c r="C171" t="s">
-        <v>162</v>
-      </c>
-      <c r="D171" t="s">
-        <v>843</v>
-      </c>
-      <c r="E171" t="s">
-        <v>804</v>
-      </c>
-      <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>17</v>
-      </c>
-      <c r="H171" t="s">
-        <v>805</v>
-      </c>
-      <c r="I171" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>177</v>
-      </c>
-      <c r="B172" t="s">
-        <v>807</v>
-      </c>
-      <c r="C172" t="s">
-        <v>808</v>
-      </c>
-      <c r="E172" t="s">
-        <v>809</v>
-      </c>
-      <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>17</v>
-      </c>
-      <c r="H172" t="s">
-        <v>810</v>
-      </c>
-      <c r="I172" t="s">
-        <v>811</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E74" r:id="rId2"/>
-    <hyperlink ref="E78" r:id="rId3"/>
+    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E72" r:id="rId2"/>
+    <hyperlink ref="E76" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>